--- a/ガント プロジェクト計画シート1.xlsx
+++ b/ガント プロジェクト計画シート1.xlsx
@@ -21,7 +21,7 @@
     <definedName name="計画">PeriodInPlan*(プロジェクト計画シート!$C1&gt;0)</definedName>
     <definedName name="実績">(PeriodInActual*(プロジェクト計画シート!$E1&gt;0))*PeriodInPlan</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>プロジェクト計画シート</t>
   </si>
@@ -40,84 +40,6 @@
   </si>
   <si>
     <t>アクティビティ</t>
-  </si>
-  <si>
-    <t>アクティビティ 01</t>
-  </si>
-  <si>
-    <t>アクティビティ 02</t>
-  </si>
-  <si>
-    <t>アクティビティ 03</t>
-  </si>
-  <si>
-    <t>アクティビティ 04</t>
-  </si>
-  <si>
-    <t>アクティビティ 05</t>
-  </si>
-  <si>
-    <t>アクティビティ 06</t>
-  </si>
-  <si>
-    <t>アクティビティ 07</t>
-  </si>
-  <si>
-    <t>アクティビティ 08</t>
-  </si>
-  <si>
-    <t>アクティビティ 09</t>
-  </si>
-  <si>
-    <t>アクティビティ 10</t>
-  </si>
-  <si>
-    <t>アクティビティ 11</t>
-  </si>
-  <si>
-    <t>アクティビティ 12</t>
-  </si>
-  <si>
-    <t>アクティビティ 13</t>
-  </si>
-  <si>
-    <t>アクティビティ 14</t>
-  </si>
-  <si>
-    <t>アクティビティ 15</t>
-  </si>
-  <si>
-    <t>アクティビティ 16</t>
-  </si>
-  <si>
-    <t>アクティビティ 17</t>
-  </si>
-  <si>
-    <t>アクティビティ 18</t>
-  </si>
-  <si>
-    <t>アクティビティ 19</t>
-  </si>
-  <si>
-    <t>アクティビティ 20</t>
-  </si>
-  <si>
-    <t>アクティビティ 21</t>
-  </si>
-  <si>
-    <t>アクティビティ 22</t>
-  </si>
-  <si>
-    <t>アクティビティ 23</t>
-  </si>
-  <si>
-    <t>アクティビティ 24</t>
-  </si>
-  <si>
-    <t>アクティビティ 25</t>
-  </si>
-  <si>
-    <t>アクティビティ 26</t>
   </si>
   <si>
     <t>計画開始日</t>
@@ -145,6 +67,110 @@
   </si>
   <si>
     <t>完了率 (計画超過)</t>
+  </si>
+  <si>
+    <t>企画</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>マップ設計・作成</t>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ＦＰＳ視点</t>
+    <rPh sb="3" eb="5">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>キャラクターのライト</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ライトカラー変更</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>画面分割</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>タイトル画面作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Room画面作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>アイテム実装</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <rPh sb="0" eb="2">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>タイマー実装</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>エフェクト実装</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <rPh sb="0" eb="1">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>アクティビティ 26</t>
+    <phoneticPr fontId="29"/>
   </si>
 </sst>
 </file>
@@ -1409,14 +1435,14 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.1796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" style="4" customWidth="1"/>
     <col min="3" max="6" width="11.1796875" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.54296875" style="21" customWidth="1"/>
     <col min="8" max="8" width="3.453125" style="3" customWidth="1"/>
@@ -1451,38 +1477,38 @@
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H2" s="6">
         <v>1</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="24" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
       <c r="N2" s="8"/>
       <c r="O2" s="24" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="9"/>
       <c r="S2" s="24" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="T2" s="25"/>
       <c r="U2" s="10"/>
       <c r="V2" s="24" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="W2" s="25"/>
       <c r="X2" s="25"/>
       <c r="Y2" s="25"/>
       <c r="Z2" s="11"/>
       <c r="AA2" s="24" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="AB2" s="25"/>
       <c r="AC2" s="25"/>
@@ -1495,22 +1521,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="14"/>
@@ -1722,22 +1748,22 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
       </c>
       <c r="D5" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="18">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -1802,22 +1828,22 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="17">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E6" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6" s="18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -1882,22 +1908,22 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7" s="17">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>3</v>
+      </c>
+      <c r="F7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="17">
-        <v>4</v>
-      </c>
-      <c r="E7" s="17">
-        <v>2</v>
-      </c>
-      <c r="F7" s="17">
-        <v>5</v>
-      </c>
       <c r="G7" s="18">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -1962,22 +1988,22 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C8" s="17">
         <v>4</v>
       </c>
       <c r="D8" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8" s="17">
         <v>4</v>
       </c>
       <c r="F8" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8" s="18">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -2042,7 +2068,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C9" s="17">
         <v>4</v>
@@ -2054,10 +2080,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="18">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -2122,19 +2148,19 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C10" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="17">
         <v>3</v>
       </c>
-      <c r="E10" s="17">
-        <v>4</v>
-      </c>
       <c r="F10" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="18">
         <v>0.85</v>
@@ -2202,22 +2228,22 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C11" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="18">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -2282,22 +2308,22 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="17">
         <v>10</v>
       </c>
-      <c r="C12" s="17">
-        <v>5</v>
-      </c>
       <c r="D12" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="18">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -2362,22 +2388,16 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="17">
-        <v>5</v>
-      </c>
-      <c r="D13" s="17">
-        <v>2</v>
-      </c>
-      <c r="E13" s="17">
-        <v>5</v>
-      </c>
-      <c r="F13" s="17">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="18">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -2442,22 +2462,16 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="17">
-        <v>6</v>
-      </c>
-      <c r="D14" s="17">
-        <v>5</v>
-      </c>
-      <c r="E14" s="17">
-        <v>6</v>
-      </c>
-      <c r="F14" s="17">
-        <v>7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -2522,22 +2536,16 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="20">
-        <v>6</v>
-      </c>
-      <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15" s="17">
-        <v>5</v>
-      </c>
-      <c r="F15" s="17">
-        <v>8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="18">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -2602,20 +2610,14 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="17">
-        <v>9</v>
-      </c>
-      <c r="D16" s="17">
-        <v>3</v>
-      </c>
-      <c r="E16" s="17">
-        <v>9</v>
-      </c>
-      <c r="F16" s="17">
-        <v>3</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="18">
         <v>0</v>
       </c>
@@ -2682,22 +2684,16 @@
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="17">
-        <v>9</v>
-      </c>
-      <c r="D17" s="17">
-        <v>6</v>
-      </c>
-      <c r="E17" s="17">
-        <v>9</v>
-      </c>
-      <c r="F17" s="17">
-        <v>7</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -2762,20 +2758,14 @@
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="17">
-        <v>9</v>
-      </c>
-      <c r="D18" s="17">
-        <v>3</v>
-      </c>
-      <c r="E18" s="17">
-        <v>9</v>
-      </c>
-      <c r="F18" s="17">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="18">
         <v>0</v>
       </c>
@@ -2842,22 +2832,16 @@
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="17">
-        <v>9</v>
-      </c>
-      <c r="D19" s="17">
-        <v>4</v>
-      </c>
-      <c r="E19" s="17">
-        <v>8</v>
-      </c>
-      <c r="F19" s="17">
-        <v>5</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -2922,22 +2906,16 @@
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="17">
-        <v>10</v>
-      </c>
-      <c r="D20" s="17">
-        <v>5</v>
-      </c>
-      <c r="E20" s="17">
-        <v>10</v>
-      </c>
-      <c r="F20" s="17">
-        <v>3</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="18">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -3002,20 +2980,14 @@
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="17">
-        <v>11</v>
-      </c>
-      <c r="D21" s="17">
-        <v>2</v>
-      </c>
-      <c r="E21" s="17">
-        <v>11</v>
-      </c>
-      <c r="F21" s="17">
-        <v>5</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="18">
         <v>0</v>
       </c>
@@ -3082,20 +3054,14 @@
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="17">
-        <v>12</v>
-      </c>
-      <c r="D22" s="17">
-        <v>6</v>
-      </c>
-      <c r="E22" s="17">
-        <v>12</v>
-      </c>
-      <c r="F22" s="17">
-        <v>7</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="18">
         <v>0</v>
       </c>
@@ -3162,20 +3128,14 @@
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="17">
-        <v>12</v>
-      </c>
-      <c r="D23" s="17">
-        <v>1</v>
-      </c>
-      <c r="E23" s="17">
-        <v>12</v>
-      </c>
-      <c r="F23" s="17">
-        <v>5</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="18">
         <v>0</v>
       </c>
@@ -3242,20 +3202,14 @@
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="17">
-        <v>14</v>
-      </c>
-      <c r="D24" s="17">
-        <v>5</v>
-      </c>
-      <c r="E24" s="17">
-        <v>14</v>
-      </c>
-      <c r="F24" s="17">
-        <v>6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="18">
         <v>0</v>
       </c>
@@ -3324,20 +3278,14 @@
       <c r="B25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="17">
-        <v>14</v>
-      </c>
-      <c r="D25" s="17">
-        <v>8</v>
-      </c>
-      <c r="E25" s="17">
-        <v>14</v>
-      </c>
-      <c r="F25" s="17">
-        <v>2</v>
-      </c>
+      <c r="C25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="18">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -3402,20 +3350,14 @@
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="17">
-        <v>14</v>
-      </c>
-      <c r="D26" s="17">
-        <v>7</v>
-      </c>
-      <c r="E26" s="17">
-        <v>14</v>
-      </c>
-      <c r="F26" s="17">
-        <v>3</v>
-      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="18">
         <v>0</v>
       </c>
@@ -3482,22 +3424,16 @@
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="17">
-        <v>15</v>
-      </c>
-      <c r="D27" s="17">
-        <v>4</v>
-      </c>
-      <c r="E27" s="17">
-        <v>15</v>
-      </c>
-      <c r="F27" s="17">
-        <v>8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="18">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -3562,22 +3498,16 @@
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="17">
-        <v>15</v>
-      </c>
-      <c r="D28" s="17">
-        <v>5</v>
-      </c>
-      <c r="E28" s="17">
-        <v>15</v>
-      </c>
-      <c r="F28" s="17">
-        <v>3</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="18">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -3642,20 +3572,14 @@
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="17">
-        <v>15</v>
-      </c>
-      <c r="D29" s="17">
-        <v>8</v>
-      </c>
-      <c r="E29" s="17">
-        <v>15</v>
-      </c>
-      <c r="F29" s="17">
-        <v>5</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="18">
         <v>0</v>
       </c>
@@ -3722,7 +3646,7 @@
     </row>
     <row r="30" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="17">
         <v>16</v>
